--- a/ArticleManage/main_working_folder/output_folders/Data 117 Microporous Carbons Obtained via/Data117_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 117 Microporous Carbons Obtained via/Data117_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="CTPC" sheetId="1" r:id="rId1"/>
-    <sheet name="CTZn" sheetId="2" r:id="rId4"/>
-    <sheet name="CTZnPC" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 CTPC  0-1-0-300 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 CTZn  0-1-0-300 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 CTZnPC  0-1-0-300 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CTPC</a:t>
+              <a:t>Izoterma adsorpcji probki CTPC z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CTPC!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 CTPC  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CTPC!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 CTPC  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CTZn</a:t>
+              <a:t>Izoterma adsorpcji probki CTZn z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CTZn!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 CTZn  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CTZn!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 CTZn  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CTZnPC</a:t>
+              <a:t>Izoterma adsorpcji probki CTZnPC z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CTZnPC!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 CTZnPC  0-1-0-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CTZnPC!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 CTZnPC  0-1-0-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 117 Microporous Carbons Obtained via/Data117_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 117 Microporous Carbons Obtained via/Data117_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,349 +3120,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0102</v>
+        <v>0.0097</v>
       </c>
       <c r="B3" s="0">
-        <v>102.014</v>
+        <v>101.4333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0299</v>
+        <v>0.0278</v>
       </c>
       <c r="B4" s="0">
-        <v>107.314</v>
+        <v>107.5075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0563</v>
+        <v>0.065</v>
       </c>
       <c r="B5" s="0">
-        <v>110.8938</v>
+        <v>111.6774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0767</v>
+        <v>0.0805</v>
       </c>
       <c r="B6" s="0">
-        <v>112.2759</v>
+        <v>113.0323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0995</v>
+        <v>0.1013</v>
       </c>
       <c r="B7" s="0">
-        <v>113.8042</v>
+        <v>114.1935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1196</v>
+        <v>0.1215</v>
       </c>
       <c r="B8" s="0">
-        <v>115.0316</v>
+        <v>115.3548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1425</v>
+        <v>0.1407</v>
       </c>
       <c r="B9" s="0">
-        <v>116.3672</v>
+        <v>116.5161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1644</v>
+        <v>0.1614</v>
       </c>
       <c r="B10" s="0">
-        <v>117.5168</v>
+        <v>117.6774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1864</v>
+        <v>0.1811</v>
       </c>
       <c r="B11" s="0">
-        <v>118.4635</v>
+        <v>118.4516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2043</v>
+        <v>0.2008</v>
       </c>
       <c r="B12" s="0">
-        <v>118.8837</v>
+        <v>119.2258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2491</v>
+        <v>0.2506</v>
       </c>
       <c r="B13" s="0">
-        <v>120.6478</v>
+        <v>120.9677</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2681</v>
+        <v>0.3014</v>
       </c>
       <c r="B14" s="0">
-        <v>121.1685</v>
+        <v>122.5161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.298</v>
+        <v>0.3507</v>
       </c>
       <c r="B15" s="0">
-        <v>122.2843</v>
+        <v>124.2581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3109</v>
+        <v>0.4</v>
       </c>
       <c r="B16" s="0">
-        <v>122.6562</v>
+        <v>125.8065</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3442</v>
+        <v>0.4492</v>
       </c>
       <c r="B17" s="0">
-        <v>123.8092</v>
+        <v>127.3548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3622</v>
+        <v>0.5001</v>
       </c>
       <c r="B18" s="0">
-        <v>124.3299</v>
+        <v>128.7097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3877</v>
+        <v>0.5499</v>
       </c>
       <c r="B19" s="0">
-        <v>125.3062</v>
+        <v>130.4516</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4046</v>
+        <v>0.6002</v>
       </c>
       <c r="B20" s="0">
-        <v>125.6317</v>
+        <v>131.6129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4323</v>
+        <v>0.6505</v>
       </c>
       <c r="B21" s="0">
-        <v>126.6731</v>
+        <v>133.1613</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4524</v>
+        <v>0.7003</v>
       </c>
       <c r="B22" s="0">
-        <v>127.1194</v>
+        <v>134.7097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4853</v>
+        <v>0.7506</v>
       </c>
       <c r="B23" s="0">
-        <v>128.2352</v>
+        <v>136.0645</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5033</v>
+        <v>0.8004</v>
       </c>
       <c r="B24" s="0">
-        <v>128.3946</v>
+        <v>137.4194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5377</v>
+        <v>0.8195</v>
       </c>
       <c r="B25" s="0">
-        <v>129.7229</v>
+        <v>138.1935</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5541</v>
+        <v>0.8507</v>
       </c>
       <c r="B26" s="0">
-        <v>130.1568</v>
+        <v>139.3548</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5819</v>
+        <v>0.875</v>
       </c>
       <c r="B27" s="0">
-        <v>131.004</v>
+        <v>140.3226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6019</v>
+        <v>0.8999</v>
       </c>
       <c r="B28" s="0">
-        <v>131.4896</v>
+        <v>141.4839</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6396</v>
+        <v>0.9248</v>
       </c>
       <c r="B29" s="0">
-        <v>132.5124</v>
+        <v>143.0323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6587</v>
+        <v>0.9497</v>
       </c>
       <c r="B30" s="0">
-        <v>132.8637</v>
+        <v>144.7742</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6937</v>
+        <v>0.9736</v>
       </c>
       <c r="B31" s="0">
-        <v>134.0621</v>
+        <v>147.871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7096</v>
+        <v>0.9808</v>
       </c>
       <c r="B32" s="0">
-        <v>134.558</v>
+        <v>150.1935</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7444</v>
+        <v>0.9901</v>
       </c>
       <c r="B33" s="0">
-        <v>135.3357</v>
+        <v>154.0645</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8102</v>
+        <v>0.9911</v>
       </c>
       <c r="B34" s="0">
-        <v>137.5335</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.8321</v>
-      </c>
-      <c r="B35" s="0">
-        <v>139.2917</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8541</v>
-      </c>
-      <c r="B36" s="0">
-        <v>139.7313</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.876</v>
-      </c>
-      <c r="B37" s="0">
-        <v>140.5225</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8979</v>
-      </c>
-      <c r="B38" s="0">
-        <v>141.3881</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9198</v>
-      </c>
-      <c r="B39" s="0">
-        <v>142.4024</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9418</v>
-      </c>
-      <c r="B40" s="0">
-        <v>143.6197</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9637</v>
-      </c>
-      <c r="B41" s="0">
-        <v>146.257</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9837</v>
-      </c>
-      <c r="B42" s="0">
-        <v>150.9463</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9923</v>
-      </c>
-      <c r="B43" s="0">
-        <v>158.7615</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.7609</v>
-      </c>
-      <c r="B44" s="0">
-        <v>136.2581</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.79</v>
-      </c>
-      <c r="B45" s="0">
-        <v>137.0323</v>
-      </c>
-    </row>
-    <row r="46"/>
+        <v>160.4516</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3471,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3500,333 +3412,253 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0317</v>
+        <v>0.0311</v>
       </c>
       <c r="B4" s="0">
-        <v>170.3379</v>
+        <v>170.3226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0638</v>
+        <v>0.0627</v>
       </c>
       <c r="B5" s="0">
-        <v>173.7597</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0865</v>
+        <v>0.0829</v>
       </c>
       <c r="B6" s="0">
-        <v>175.3353</v>
+        <v>175.3548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.108</v>
+        <v>0.1021</v>
       </c>
       <c r="B7" s="0">
-        <v>176.4376</v>
+        <v>176.3226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1303</v>
+        <v>0.1218</v>
       </c>
       <c r="B8" s="0">
-        <v>177.5331</v>
+        <v>177.0968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1523</v>
+        <v>0.1415</v>
       </c>
       <c r="B9" s="0">
-        <v>178.3108</v>
+        <v>177.871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1742</v>
+        <v>0.1607</v>
       </c>
       <c r="B10" s="0">
-        <v>178.7165</v>
+        <v>178.2581</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1961</v>
+        <v>0.1809</v>
       </c>
       <c r="B11" s="0">
-        <v>179.6633</v>
+        <v>179.0323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2081</v>
+        <v>0.1991</v>
       </c>
       <c r="B12" s="0">
-        <v>179.5618</v>
+        <v>179.6129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2439</v>
+        <v>0.2494</v>
       </c>
       <c r="B13" s="0">
-        <v>181.1172</v>
+        <v>180.3871</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2569</v>
+        <v>0.3007</v>
       </c>
       <c r="B14" s="0">
-        <v>181.0496</v>
+        <v>181.3548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3237</v>
+        <v>0.3515</v>
       </c>
       <c r="B15" s="0">
-        <v>181.861</v>
+        <v>182.3226</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7522</v>
+        <v>0.3998</v>
       </c>
       <c r="B16" s="0">
-        <v>185.9523</v>
+        <v>183.0968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7712</v>
+        <v>0.4496</v>
       </c>
       <c r="B17" s="0">
-        <v>185.8847</v>
+        <v>183.4839</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.8001</v>
+        <v>0.5004</v>
       </c>
       <c r="B18" s="0">
-        <v>187.2371</v>
+        <v>183.871</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.822</v>
+        <v>0.5492</v>
       </c>
       <c r="B19" s="0">
-        <v>187.1019</v>
+        <v>183.871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8443</v>
+        <v>0.5989</v>
       </c>
       <c r="B20" s="0">
-        <v>187.6328</v>
+        <v>184.4516</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.8659</v>
+        <v>0.6503</v>
       </c>
       <c r="B21" s="0">
-        <v>187.7781</v>
+        <v>185.4194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8878</v>
+        <v>0.6996</v>
       </c>
       <c r="B22" s="0">
-        <v>188.1163</v>
+        <v>185.0323</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9097</v>
+        <v>0.7499</v>
       </c>
       <c r="B23" s="0">
-        <v>189.1982</v>
+        <v>185.8065</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9316</v>
+        <v>0.7991</v>
       </c>
       <c r="B24" s="0">
-        <v>189.9083</v>
+        <v>186.5806</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9537</v>
+        <v>0.8204</v>
       </c>
       <c r="B25" s="0">
-        <v>191.3778</v>
+        <v>186.7742</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9764</v>
+        <v>0.8489</v>
       </c>
       <c r="B26" s="0">
-        <v>194.4763</v>
+        <v>186.7742</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9914</v>
+        <v>0.8749</v>
       </c>
       <c r="B27" s="0">
-        <v>199.2742</v>
+        <v>187.1613</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.711</v>
+        <v>0.8998</v>
       </c>
       <c r="B28" s="0">
-        <v>185.4194</v>
+        <v>187.9355</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6902</v>
+        <v>0.9241</v>
       </c>
       <c r="B29" s="0">
-        <v>185.0323</v>
+        <v>188.5161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6601</v>
+        <v>0.9501</v>
       </c>
       <c r="B30" s="0">
-        <v>185.0323</v>
+        <v>190.0645</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6394</v>
+        <v>0.9734</v>
       </c>
       <c r="B31" s="0">
-        <v>184.6452</v>
+        <v>193.1613</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6093</v>
+        <v>0.9812</v>
       </c>
       <c r="B32" s="0">
-        <v>184.6452</v>
+        <v>194.7097</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5896</v>
+        <v>0.9905</v>
       </c>
       <c r="B33" s="0">
-        <v>184.6452</v>
+        <v>198.5806</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5585</v>
+        <v>0.9926</v>
       </c>
       <c r="B34" s="0">
-        <v>184.2581</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.5388</v>
-      </c>
-      <c r="B35" s="0">
-        <v>184.2581</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.5097</v>
-      </c>
-      <c r="B36" s="0">
-        <v>183.871</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.462</v>
-      </c>
-      <c r="B37" s="0">
-        <v>183.4839</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.489</v>
-      </c>
-      <c r="B38" s="0">
-        <v>183.4839</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.4382</v>
-      </c>
-      <c r="B39" s="0">
-        <v>182.7097</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.4091</v>
-      </c>
-      <c r="B40" s="0">
-        <v>182.7097</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.3894</v>
-      </c>
-      <c r="B41" s="0">
-        <v>182.7097</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.3604</v>
-      </c>
-      <c r="B42" s="0">
-        <v>181.9355</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.3417</v>
-      </c>
-      <c r="B43" s="0">
-        <v>182.3226</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.2888</v>
-      </c>
-      <c r="B44" s="0">
-        <v>181.1613</v>
-      </c>
-    </row>
-    <row r="45"/>
+        <v>203.6129</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3835,7 +3667,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3856,50 +3688,50 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0102</v>
       </c>
       <c r="B3" s="0">
-        <v>218.632</v>
+        <v>213.7933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0312</v>
       </c>
       <c r="B4" s="0">
-        <v>226.2585</v>
+        <v>225.4844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0636</v>
       </c>
       <c r="B5" s="0">
-        <v>230.5159</v>
+        <v>230.903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0821</v>
       </c>
       <c r="B6" s="0">
-        <v>232.3228</v>
+        <v>232.7099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="B7" s="0">
-        <v>233.6947</v>
+        <v>234.0818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1216</v>
       </c>
       <c r="B8" s="0">
-        <v>234.9641</v>
+        <v>235.1577</v>
       </c>
     </row>
     <row r="9">
@@ -3928,325 +3760,197 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.2005</v>
       </c>
       <c r="B12" s="0">
-        <v>238.1793</v>
+        <v>238.5664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2502</v>
       </c>
       <c r="B13" s="0">
-        <v>238.5495</v>
+        <v>240.1935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="B14" s="0">
-        <v>239.4558</v>
+        <v>241.3548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.3301</v>
       </c>
       <c r="B15" s="0">
-        <v>240.1038</v>
+        <v>242.129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3503</v>
       </c>
       <c r="B16" s="0">
-        <v>240.5133</v>
+        <v>241.9355</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3985</v>
       </c>
       <c r="B17" s="0">
-        <v>240.6019</v>
+        <v>243.0968</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4499</v>
       </c>
       <c r="B18" s="0">
-        <v>240.8502</v>
+        <v>243.871</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5002</v>
       </c>
       <c r="B19" s="0">
-        <v>241.5524</v>
+        <v>243.871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5495</v>
       </c>
       <c r="B20" s="0">
-        <v>242.0148</v>
+        <v>244.4516</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.5998</v>
       </c>
       <c r="B21" s="0">
-        <v>242.396</v>
+        <v>245.0323</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6501</v>
       </c>
       <c r="B22" s="0">
-        <v>242.5339</v>
+        <v>245.8065</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.6999</v>
       </c>
       <c r="B23" s="0">
-        <v>242.4135</v>
+        <v>246.3871</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7502</v>
       </c>
       <c r="B24" s="0">
-        <v>242.8041</v>
+        <v>246.5806</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.7979</v>
       </c>
       <c r="B25" s="0">
-        <v>243.8413</v>
+        <v>247.1613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8207</v>
       </c>
       <c r="B26" s="0">
-        <v>244.5272</v>
+        <v>247.9355</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8503</v>
       </c>
       <c r="B27" s="0">
-        <v>244.283</v>
+        <v>248.129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8757</v>
       </c>
       <c r="B28" s="0">
-        <v>243.8274</v>
+        <v>248.9032</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.8996</v>
       </c>
       <c r="B29" s="0">
-        <v>244.5563</v>
+        <v>249.2903</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.9255</v>
       </c>
       <c r="B30" s="0">
-        <v>245.0229</v>
+        <v>250.2581</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.9499</v>
       </c>
       <c r="B31" s="0">
-        <v>245.0695</v>
+        <v>251.8065</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9747</v>
       </c>
       <c r="B32" s="0">
-        <v>245.8624</v>
+        <v>254.5161</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.981</v>
       </c>
       <c r="B33" s="0">
-        <v>246.3106</v>
+        <v>257.6129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.9908</v>
       </c>
       <c r="B34" s="0">
-        <v>246.1453</v>
+        <v>261.6774</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.9934</v>
       </c>
       <c r="B35" s="0">
-        <v>246.1106</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>246.5815</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>246.5183</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>246.6553</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>247.3441</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>247.3347</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>247.3384</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>247.8348</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>248.2234</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>248.7782</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>249.1097</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>249.2247</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>249.7233</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>250.5629</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>252.0259</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>254.299</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>259.6288</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>266.3226</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 117 Microporous Carbons Obtained via/Data117_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 117 Microporous Carbons Obtained via/Data117_all_graphs_excel.xlsx
@@ -5,24 +5,36 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2_1 CTPC  0-1-0-300 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2_1 CTZn  0-1-0-300 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2_1 CTZnPC  0-1-0-300 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 CTPC-A  0&amp;1&amp;0&amp;450 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 CTZn-A  0&amp;1&amp;0&amp;450 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 CTZnPC-A  0&amp;1&amp;0&amp;450 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 CTPC  0&amp;1&amp;0&amp;300 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 CTZn  0&amp;1&amp;0&amp;300 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_1 CTZnPC  0&amp;1&amp;0&amp;300 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>CTPC</t>
+    <t>CTPC-A</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>CTZn-A</t>
+  </si>
+  <si>
+    <t>CTZnPC-A</t>
+  </si>
+  <si>
+    <t>CTPC</t>
   </si>
   <si>
     <t>CTZn</t>
@@ -73,6 +85,948 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CTPC-A z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 CTPC-A  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 CTPC-A  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CTZn-A z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 CTZn-A  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 CTZn-A  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CTZnPC-A z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 CTZnPC-A  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 CTZnPC-A  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -164,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 CTPC  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 CTPC  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 CTPC  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 CTPC  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -386,7 +1340,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -478,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 CTZn  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 CTZn  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 CTZn  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 CTZn  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -700,7 +1654,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -792,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 CTZnPC  0-1-0-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 CTZnPC  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 CTZnPC  0-1-0-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 CTZnPC  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1134,6 +2088,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2177,6 +3251,1569 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2785,6 +5422,111 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3120,258 +5862,258 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0097</v>
+        <v>0.9922</v>
       </c>
       <c r="B3" s="0">
-        <v>101.4333</v>
+        <v>453.3267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0278</v>
+        <v>0.9876</v>
       </c>
       <c r="B4" s="0">
-        <v>107.5075</v>
+        <v>443.9594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.065</v>
+        <v>0.9809</v>
       </c>
       <c r="B5" s="0">
-        <v>111.6774</v>
+        <v>436.406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0805</v>
+        <v>0.9721</v>
       </c>
       <c r="B6" s="0">
-        <v>113.0323</v>
+        <v>432.7821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1013</v>
+        <v>0.9483</v>
       </c>
       <c r="B7" s="0">
-        <v>114.1935</v>
+        <v>426.745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1215</v>
+        <v>0.9209</v>
       </c>
       <c r="B8" s="0">
-        <v>115.3548</v>
+        <v>422.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1407</v>
+        <v>0.8966</v>
       </c>
       <c r="B9" s="0">
-        <v>116.5161</v>
+        <v>419.2052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1614</v>
+        <v>0.8713</v>
       </c>
       <c r="B10" s="0">
-        <v>117.6774</v>
+        <v>416.4929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1811</v>
+        <v>0.8475</v>
       </c>
       <c r="B11" s="0">
-        <v>118.4516</v>
+        <v>414.3846</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2008</v>
+        <v>0.818</v>
       </c>
       <c r="B12" s="0">
-        <v>119.2258</v>
+        <v>412.5802</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2506</v>
+        <v>0.7958</v>
       </c>
       <c r="B13" s="0">
-        <v>120.9677</v>
+        <v>410.4714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3014</v>
+        <v>0.7472</v>
       </c>
       <c r="B14" s="0">
-        <v>122.5161</v>
+        <v>407.1617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3507</v>
+        <v>0.6971</v>
       </c>
       <c r="B15" s="0">
-        <v>124.2581</v>
+        <v>403.5503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4</v>
+        <v>0.6479</v>
       </c>
       <c r="B16" s="0">
-        <v>125.8065</v>
+        <v>399.9385</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4492</v>
+        <v>0.5978</v>
       </c>
       <c r="B17" s="0">
-        <v>127.3548</v>
+        <v>396.0248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5001</v>
+        <v>0.5482</v>
       </c>
       <c r="B18" s="0">
-        <v>128.7097</v>
+        <v>392.4133</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5499</v>
+        <v>0.4985</v>
       </c>
       <c r="B19" s="0">
-        <v>130.4516</v>
+        <v>388.8017</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6002</v>
+        <v>0.4479</v>
       </c>
       <c r="B20" s="0">
-        <v>131.6129</v>
+        <v>384.2837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6505</v>
+        <v>0.3993</v>
       </c>
       <c r="B21" s="0">
-        <v>133.1613</v>
+        <v>380.3696</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7003</v>
+        <v>0.3512</v>
       </c>
       <c r="B22" s="0">
-        <v>134.7097</v>
+        <v>375.5487</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7506</v>
+        <v>0.3005</v>
       </c>
       <c r="B23" s="0">
-        <v>136.0645</v>
+        <v>370.4263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8004</v>
+        <v>0.2493</v>
       </c>
       <c r="B24" s="0">
-        <v>137.4194</v>
+        <v>365.6063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8195</v>
+        <v>0.2007</v>
       </c>
       <c r="B25" s="0">
-        <v>138.1935</v>
+        <v>359.5767</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8507</v>
+        <v>0.1826</v>
       </c>
       <c r="B26" s="0">
-        <v>139.3548</v>
+        <v>356.2578</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.875</v>
+        <v>0.1635</v>
       </c>
       <c r="B27" s="0">
-        <v>140.3226</v>
+        <v>353.2414</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8999</v>
+        <v>0.1413</v>
       </c>
       <c r="B28" s="0">
-        <v>141.4839</v>
+        <v>347.8082</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9248</v>
+        <v>0.1211</v>
       </c>
       <c r="B29" s="0">
-        <v>143.0323</v>
+        <v>343.2811</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9497</v>
+        <v>0.101</v>
       </c>
       <c r="B30" s="0">
-        <v>144.7742</v>
+        <v>337.8473</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9736</v>
+        <v>0.0792</v>
       </c>
       <c r="B31" s="0">
-        <v>147.871</v>
+        <v>329.694</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9808</v>
+        <v>0.0581</v>
       </c>
       <c r="B32" s="0">
-        <v>150.1935</v>
+        <v>320.9361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9901</v>
+        <v>0.0317</v>
       </c>
       <c r="B33" s="0">
-        <v>154.0645</v>
+        <v>302.5089</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9911</v>
+        <v>0.0111</v>
       </c>
       <c r="B34" s="0">
-        <v>160.4516</v>
+        <v>273.2001</v>
       </c>
     </row>
     <row r="35"/>
@@ -3404,258 +6146,258 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0098</v>
+        <v>0.992</v>
       </c>
       <c r="B3" s="0">
-        <v>164.1638</v>
+        <v>250.5397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0311</v>
+        <v>0.9873</v>
       </c>
       <c r="B4" s="0">
-        <v>170.3226</v>
+        <v>243.8924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0627</v>
+        <v>0.977</v>
       </c>
       <c r="B5" s="0">
-        <v>174</v>
+        <v>239.6644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0829</v>
+        <v>0.9692</v>
       </c>
       <c r="B6" s="0">
-        <v>175.3548</v>
+        <v>236.9468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1021</v>
+        <v>0.947</v>
       </c>
       <c r="B7" s="0">
-        <v>176.3226</v>
+        <v>234.2336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1218</v>
+        <v>0.9232</v>
       </c>
       <c r="B8" s="0">
-        <v>177.0968</v>
+        <v>232.4275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1415</v>
+        <v>0.8979</v>
       </c>
       <c r="B9" s="0">
-        <v>177.871</v>
+        <v>231.2263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1607</v>
+        <v>0.8736</v>
       </c>
       <c r="B10" s="0">
-        <v>178.2581</v>
+        <v>229.7226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1809</v>
+        <v>0.8482</v>
       </c>
       <c r="B11" s="0">
-        <v>179.0323</v>
+        <v>229.1258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1991</v>
+        <v>0.8182</v>
       </c>
       <c r="B12" s="0">
-        <v>179.6129</v>
+        <v>228.8326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2494</v>
+        <v>0.7991</v>
       </c>
       <c r="B13" s="0">
-        <v>180.3871</v>
+        <v>228.234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3007</v>
+        <v>0.749</v>
       </c>
       <c r="B14" s="0">
-        <v>181.3548</v>
+        <v>227.0403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3515</v>
+        <v>0.6988</v>
       </c>
       <c r="B15" s="0">
-        <v>182.3226</v>
+        <v>225.8466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3998</v>
+        <v>0.6487</v>
       </c>
       <c r="B16" s="0">
-        <v>183.0968</v>
+        <v>224.9551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4496</v>
+        <v>0.6001</v>
       </c>
       <c r="B17" s="0">
-        <v>183.4839</v>
+        <v>224.0631</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5004</v>
+        <v>0.5494</v>
       </c>
       <c r="B18" s="0">
-        <v>183.871</v>
+        <v>223.474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5492</v>
+        <v>0.5008</v>
       </c>
       <c r="B19" s="0">
-        <v>183.871</v>
+        <v>221.9776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5989</v>
+        <v>0.4501</v>
       </c>
       <c r="B20" s="0">
-        <v>184.4516</v>
+        <v>219.273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6503</v>
+        <v>0.4</v>
       </c>
       <c r="B21" s="0">
-        <v>185.4194</v>
+        <v>218.0793</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6996</v>
+        <v>0.3488</v>
       </c>
       <c r="B22" s="0">
-        <v>185.0323</v>
+        <v>216.8859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7499</v>
+        <v>0.3002</v>
       </c>
       <c r="B23" s="0">
-        <v>185.8065</v>
+        <v>214.785</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7991</v>
+        <v>0.2505</v>
       </c>
       <c r="B24" s="0">
-        <v>186.5806</v>
+        <v>212.9867</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8204</v>
+        <v>0.2004</v>
       </c>
       <c r="B25" s="0">
-        <v>186.7742</v>
+        <v>211.1886</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8489</v>
+        <v>0.1823</v>
       </c>
       <c r="B26" s="0">
-        <v>186.7742</v>
+        <v>210.5896</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8749</v>
+        <v>0.1626</v>
       </c>
       <c r="B27" s="0">
-        <v>187.1613</v>
+        <v>209.9911</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8998</v>
+        <v>0.142</v>
       </c>
       <c r="B28" s="0">
-        <v>187.9355</v>
+        <v>207.8819</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9241</v>
+        <v>0.1223</v>
       </c>
       <c r="B29" s="0">
-        <v>188.5161</v>
+        <v>207.5856</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9501</v>
+        <v>0.1016</v>
       </c>
       <c r="B30" s="0">
-        <v>190.0645</v>
+        <v>205.7786</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9734</v>
+        <v>0.082</v>
       </c>
       <c r="B31" s="0">
-        <v>193.1613</v>
+        <v>204.5756</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9812</v>
+        <v>0.0639</v>
       </c>
       <c r="B32" s="0">
-        <v>194.7097</v>
+        <v>202.1634</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9905</v>
+        <v>0.0318</v>
       </c>
       <c r="B33" s="0">
-        <v>198.5806</v>
+        <v>197.0354</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9926</v>
+        <v>0.0106</v>
       </c>
       <c r="B34" s="0">
-        <v>203.6129</v>
+        <v>188.5797</v>
       </c>
     </row>
     <row r="35"/>
@@ -3667,6 +6409,850 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9929</v>
+      </c>
+      <c r="B3" s="0">
+        <v>323.978</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9883</v>
+      </c>
+      <c r="B4" s="0">
+        <v>317.3306</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.981</v>
+      </c>
+      <c r="B5" s="0">
+        <v>313.1018</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9702</v>
+      </c>
+      <c r="B6" s="0">
+        <v>310.0829</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.949</v>
+      </c>
+      <c r="B7" s="0">
+        <v>306.7649</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9236</v>
+      </c>
+      <c r="B8" s="0">
+        <v>304.3548</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8999</v>
+      </c>
+      <c r="B9" s="0">
+        <v>303.7576</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8756</v>
+      </c>
+      <c r="B10" s="0">
+        <v>302.8583</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8492</v>
+      </c>
+      <c r="B11" s="0">
+        <v>302.564</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.8192</v>
+      </c>
+      <c r="B12" s="0">
+        <v>301.3642</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7499</v>
+      </c>
+      <c r="B13" s="0">
+        <v>298.6652</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6992</v>
+      </c>
+      <c r="B14" s="0">
+        <v>297.7739</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6496</v>
+      </c>
+      <c r="B15" s="0">
+        <v>296.58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B16" s="0">
+        <v>294.7817</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5498</v>
+      </c>
+      <c r="B17" s="0">
+        <v>293.8902</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5007</v>
+      </c>
+      <c r="B18" s="0">
+        <v>292.394</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.4511</v>
+      </c>
+      <c r="B19" s="0">
+        <v>290.5957</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3994</v>
+      </c>
+      <c r="B20" s="0">
+        <v>288.798</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.3523</v>
+      </c>
+      <c r="B21" s="0">
+        <v>286.999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.3006</v>
+      </c>
+      <c r="B22" s="0">
+        <v>284.8991</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.2499</v>
+      </c>
+      <c r="B23" s="0">
+        <v>282.1944</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.2003</v>
+      </c>
+      <c r="B24" s="0">
+        <v>279.7917</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1817</v>
+      </c>
+      <c r="B25" s="0">
+        <v>278.5885</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.1615</v>
+      </c>
+      <c r="B26" s="0">
+        <v>277.3857</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.1408</v>
+      </c>
+      <c r="B27" s="0">
+        <v>276.1831</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.1227</v>
+      </c>
+      <c r="B28" s="0">
+        <v>273.7708</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1021</v>
+      </c>
+      <c r="B29" s="0">
+        <v>271.3593</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0819</v>
+      </c>
+      <c r="B30" s="0">
+        <v>268.9477</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0597</v>
+      </c>
+      <c r="B31" s="0">
+        <v>264.7234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0318</v>
+      </c>
+      <c r="B32" s="0">
+        <v>256.572</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0101</v>
+      </c>
+      <c r="B33" s="0">
+        <v>237.8411</v>
+      </c>
+    </row>
+    <row r="34"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0097</v>
+      </c>
+      <c r="B3" s="0">
+        <v>101.4333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0278</v>
+      </c>
+      <c r="B4" s="0">
+        <v>107.5075</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.065</v>
+      </c>
+      <c r="B5" s="0">
+        <v>111.6774</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0805</v>
+      </c>
+      <c r="B6" s="0">
+        <v>113.0323</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1013</v>
+      </c>
+      <c r="B7" s="0">
+        <v>114.1935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1215</v>
+      </c>
+      <c r="B8" s="0">
+        <v>115.3548</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1407</v>
+      </c>
+      <c r="B9" s="0">
+        <v>116.5161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1614</v>
+      </c>
+      <c r="B10" s="0">
+        <v>117.6774</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1811</v>
+      </c>
+      <c r="B11" s="0">
+        <v>118.4516</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2008</v>
+      </c>
+      <c r="B12" s="0">
+        <v>119.2258</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2506</v>
+      </c>
+      <c r="B13" s="0">
+        <v>120.9677</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3014</v>
+      </c>
+      <c r="B14" s="0">
+        <v>122.5161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3507</v>
+      </c>
+      <c r="B15" s="0">
+        <v>124.2581</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B16" s="0">
+        <v>125.8065</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4492</v>
+      </c>
+      <c r="B17" s="0">
+        <v>127.3548</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5001</v>
+      </c>
+      <c r="B18" s="0">
+        <v>128.7097</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5499</v>
+      </c>
+      <c r="B19" s="0">
+        <v>130.4516</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6002</v>
+      </c>
+      <c r="B20" s="0">
+        <v>131.6129</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6505</v>
+      </c>
+      <c r="B21" s="0">
+        <v>133.1613</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7003</v>
+      </c>
+      <c r="B22" s="0">
+        <v>134.7097</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7506</v>
+      </c>
+      <c r="B23" s="0">
+        <v>136.0645</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8004</v>
+      </c>
+      <c r="B24" s="0">
+        <v>137.4194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8195</v>
+      </c>
+      <c r="B25" s="0">
+        <v>138.1935</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8507</v>
+      </c>
+      <c r="B26" s="0">
+        <v>139.3548</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.875</v>
+      </c>
+      <c r="B27" s="0">
+        <v>140.3226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8999</v>
+      </c>
+      <c r="B28" s="0">
+        <v>141.4839</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9248</v>
+      </c>
+      <c r="B29" s="0">
+        <v>143.0323</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9497</v>
+      </c>
+      <c r="B30" s="0">
+        <v>144.7742</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9736</v>
+      </c>
+      <c r="B31" s="0">
+        <v>147.871</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9808</v>
+      </c>
+      <c r="B32" s="0">
+        <v>150.1935</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9901</v>
+      </c>
+      <c r="B33" s="0">
+        <v>154.0645</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.9911</v>
+      </c>
+      <c r="B34" s="0">
+        <v>160.4516</v>
+      </c>
+    </row>
+    <row r="35"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0098</v>
+      </c>
+      <c r="B3" s="0">
+        <v>164.1638</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0311</v>
+      </c>
+      <c r="B4" s="0">
+        <v>170.3226</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0627</v>
+      </c>
+      <c r="B5" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0829</v>
+      </c>
+      <c r="B6" s="0">
+        <v>175.3548</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1021</v>
+      </c>
+      <c r="B7" s="0">
+        <v>176.3226</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1218</v>
+      </c>
+      <c r="B8" s="0">
+        <v>177.0968</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1415</v>
+      </c>
+      <c r="B9" s="0">
+        <v>177.871</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1607</v>
+      </c>
+      <c r="B10" s="0">
+        <v>178.2581</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1809</v>
+      </c>
+      <c r="B11" s="0">
+        <v>179.0323</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1991</v>
+      </c>
+      <c r="B12" s="0">
+        <v>179.6129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2494</v>
+      </c>
+      <c r="B13" s="0">
+        <v>180.3871</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3007</v>
+      </c>
+      <c r="B14" s="0">
+        <v>181.3548</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3515</v>
+      </c>
+      <c r="B15" s="0">
+        <v>182.3226</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3998</v>
+      </c>
+      <c r="B16" s="0">
+        <v>183.0968</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4496</v>
+      </c>
+      <c r="B17" s="0">
+        <v>183.4839</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5004</v>
+      </c>
+      <c r="B18" s="0">
+        <v>183.871</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5492</v>
+      </c>
+      <c r="B19" s="0">
+        <v>183.871</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5989</v>
+      </c>
+      <c r="B20" s="0">
+        <v>184.4516</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6503</v>
+      </c>
+      <c r="B21" s="0">
+        <v>185.4194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6996</v>
+      </c>
+      <c r="B22" s="0">
+        <v>185.0323</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7499</v>
+      </c>
+      <c r="B23" s="0">
+        <v>185.8065</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7991</v>
+      </c>
+      <c r="B24" s="0">
+        <v>186.5806</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8204</v>
+      </c>
+      <c r="B25" s="0">
+        <v>186.7742</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8489</v>
+      </c>
+      <c r="B26" s="0">
+        <v>186.7742</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8749</v>
+      </c>
+      <c r="B27" s="0">
+        <v>187.1613</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8998</v>
+      </c>
+      <c r="B28" s="0">
+        <v>187.9355</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9241</v>
+      </c>
+      <c r="B29" s="0">
+        <v>188.5161</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9501</v>
+      </c>
+      <c r="B30" s="0">
+        <v>190.0645</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9734</v>
+      </c>
+      <c r="B31" s="0">
+        <v>193.1613</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9812</v>
+      </c>
+      <c r="B32" s="0">
+        <v>194.7097</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9905</v>
+      </c>
+      <c r="B33" s="0">
+        <v>198.5806</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.9926</v>
+      </c>
+      <c r="B34" s="0">
+        <v>203.6129</v>
+      </c>
+    </row>
+    <row r="35"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3675,7 +7261,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">

--- a/ArticleManage/main_working_folder/output_folders/Data 117 Microporous Carbons Obtained via/Data117_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 117 Microporous Carbons Obtained via/Data117_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 CTPC-A  0&amp;1&amp;0&amp;450 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 CTZn-A  0&amp;1&amp;0&amp;450 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 CTZnPC-A  0&amp;1&amp;0&amp;450 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_1 CTPC  0&amp;1&amp;0&amp;300 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2_1 CTZn  0&amp;1&amp;0&amp;300 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2_1 CTZnPC  0&amp;1&amp;0&amp;300 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_1 CTPC  0&amp;1&amp;0&amp;300 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 CTZn  0&amp;1&amp;0&amp;300 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 CTZnPC  0&amp;1&amp;0&amp;300 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_2 CTPC-A  0&amp;1&amp;0&amp;450 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_2 CTZn-A  0&amp;1&amp;0&amp;450 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 CTZnPC-A  0&amp;1&amp;0&amp;450 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>CTPC-A</t>
+    <t>CTPC</t>
   </si>
   <si>
     <t>X</t>
@@ -28,19 +28,19 @@
     <t>Y</t>
   </si>
   <si>
+    <t>CTZn</t>
+  </si>
+  <si>
+    <t>CTZnPC</t>
+  </si>
+  <si>
+    <t>CTPC-A</t>
+  </si>
+  <si>
     <t>CTZn-A</t>
   </si>
   <si>
     <t>CTZnPC-A</t>
-  </si>
-  <si>
-    <t>CTPC</t>
-  </si>
-  <si>
-    <t>CTZn</t>
-  </si>
-  <si>
-    <t>CTZnPC</t>
   </si>
 </sst>
 </file>
@@ -85,948 +85,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CTPC-A z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 CTPC-A  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 CTPC-A  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="450"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CTZn-A z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 CTZn-A  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 CTZn-A  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="450"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CTZnPC-A z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 CTZnPC-A  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 CTZnPC-A  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="450"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1340,7 +398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1654,7 +712,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1836,6 +894,948 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CTPC-A z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 CTPC-A  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 CTPC-A  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CTZn-A z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 CTZn-A  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 CTZn-A  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CTZnPC-A z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 CTZnPC-A  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 CTZnPC-A  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5862,258 +5862,258 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9922</v>
+        <v>0.0097</v>
       </c>
       <c r="B3" s="0">
-        <v>453.3267</v>
+        <v>101.4333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9876</v>
+        <v>0.0278</v>
       </c>
       <c r="B4" s="0">
-        <v>443.9594</v>
+        <v>107.5075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9809</v>
+        <v>0.065</v>
       </c>
       <c r="B5" s="0">
-        <v>436.406</v>
+        <v>111.6774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9721</v>
+        <v>0.0805</v>
       </c>
       <c r="B6" s="0">
-        <v>432.7821</v>
+        <v>113.0323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9483</v>
+        <v>0.1013</v>
       </c>
       <c r="B7" s="0">
-        <v>426.745</v>
+        <v>114.1935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9209</v>
+        <v>0.1215</v>
       </c>
       <c r="B8" s="0">
-        <v>422.22</v>
+        <v>115.3548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8966</v>
+        <v>0.1407</v>
       </c>
       <c r="B9" s="0">
-        <v>419.2052</v>
+        <v>116.5161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8713</v>
+        <v>0.1614</v>
       </c>
       <c r="B10" s="0">
-        <v>416.4929</v>
+        <v>117.6774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8475</v>
+        <v>0.1811</v>
       </c>
       <c r="B11" s="0">
-        <v>414.3846</v>
+        <v>118.4516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.818</v>
+        <v>0.2008</v>
       </c>
       <c r="B12" s="0">
-        <v>412.5802</v>
+        <v>119.2258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7958</v>
+        <v>0.2506</v>
       </c>
       <c r="B13" s="0">
-        <v>410.4714</v>
+        <v>120.9677</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7472</v>
+        <v>0.3014</v>
       </c>
       <c r="B14" s="0">
-        <v>407.1617</v>
+        <v>122.5161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6971</v>
+        <v>0.3507</v>
       </c>
       <c r="B15" s="0">
-        <v>403.5503</v>
+        <v>124.2581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6479</v>
+        <v>0.4</v>
       </c>
       <c r="B16" s="0">
-        <v>399.9385</v>
+        <v>125.8065</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5978</v>
+        <v>0.4492</v>
       </c>
       <c r="B17" s="0">
-        <v>396.0248</v>
+        <v>127.3548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5482</v>
+        <v>0.5001</v>
       </c>
       <c r="B18" s="0">
-        <v>392.4133</v>
+        <v>128.7097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4985</v>
+        <v>0.5499</v>
       </c>
       <c r="B19" s="0">
-        <v>388.8017</v>
+        <v>130.4516</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4479</v>
+        <v>0.6002</v>
       </c>
       <c r="B20" s="0">
-        <v>384.2837</v>
+        <v>131.6129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3993</v>
+        <v>0.6505</v>
       </c>
       <c r="B21" s="0">
-        <v>380.3696</v>
+        <v>133.1613</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3512</v>
+        <v>0.7003</v>
       </c>
       <c r="B22" s="0">
-        <v>375.5487</v>
+        <v>134.7097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3005</v>
+        <v>0.7506</v>
       </c>
       <c r="B23" s="0">
-        <v>370.4263</v>
+        <v>136.0645</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2493</v>
+        <v>0.8004</v>
       </c>
       <c r="B24" s="0">
-        <v>365.6063</v>
+        <v>137.4194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2007</v>
+        <v>0.8195</v>
       </c>
       <c r="B25" s="0">
-        <v>359.5767</v>
+        <v>138.1935</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1826</v>
+        <v>0.8507</v>
       </c>
       <c r="B26" s="0">
-        <v>356.2578</v>
+        <v>139.3548</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1635</v>
+        <v>0.875</v>
       </c>
       <c r="B27" s="0">
-        <v>353.2414</v>
+        <v>140.3226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1413</v>
+        <v>0.8999</v>
       </c>
       <c r="B28" s="0">
-        <v>347.8082</v>
+        <v>141.4839</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1211</v>
+        <v>0.9248</v>
       </c>
       <c r="B29" s="0">
-        <v>343.2811</v>
+        <v>143.0323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.101</v>
+        <v>0.9497</v>
       </c>
       <c r="B30" s="0">
-        <v>337.8473</v>
+        <v>144.7742</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0792</v>
+        <v>0.9736</v>
       </c>
       <c r="B31" s="0">
-        <v>329.694</v>
+        <v>147.871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0581</v>
+        <v>0.9808</v>
       </c>
       <c r="B32" s="0">
-        <v>320.9361</v>
+        <v>150.1935</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0317</v>
+        <v>0.9901</v>
       </c>
       <c r="B33" s="0">
-        <v>302.5089</v>
+        <v>154.0645</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0111</v>
+        <v>0.9911</v>
       </c>
       <c r="B34" s="0">
-        <v>273.2001</v>
+        <v>160.4516</v>
       </c>
     </row>
     <row r="35"/>
@@ -6146,258 +6146,258 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.992</v>
+        <v>0.0098</v>
       </c>
       <c r="B3" s="0">
-        <v>250.5397</v>
+        <v>164.1638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9873</v>
+        <v>0.0311</v>
       </c>
       <c r="B4" s="0">
-        <v>243.8924</v>
+        <v>170.3226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.977</v>
+        <v>0.0627</v>
       </c>
       <c r="B5" s="0">
-        <v>239.6644</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9692</v>
+        <v>0.0829</v>
       </c>
       <c r="B6" s="0">
-        <v>236.9468</v>
+        <v>175.3548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.947</v>
+        <v>0.1021</v>
       </c>
       <c r="B7" s="0">
-        <v>234.2336</v>
+        <v>176.3226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9232</v>
+        <v>0.1218</v>
       </c>
       <c r="B8" s="0">
-        <v>232.4275</v>
+        <v>177.0968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8979</v>
+        <v>0.1415</v>
       </c>
       <c r="B9" s="0">
-        <v>231.2263</v>
+        <v>177.871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8736</v>
+        <v>0.1607</v>
       </c>
       <c r="B10" s="0">
-        <v>229.7226</v>
+        <v>178.2581</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8482</v>
+        <v>0.1809</v>
       </c>
       <c r="B11" s="0">
-        <v>229.1258</v>
+        <v>179.0323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.8182</v>
+        <v>0.1991</v>
       </c>
       <c r="B12" s="0">
-        <v>228.8326</v>
+        <v>179.6129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7991</v>
+        <v>0.2494</v>
       </c>
       <c r="B13" s="0">
-        <v>228.234</v>
+        <v>180.3871</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.749</v>
+        <v>0.3007</v>
       </c>
       <c r="B14" s="0">
-        <v>227.0403</v>
+        <v>181.3548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6988</v>
+        <v>0.3515</v>
       </c>
       <c r="B15" s="0">
-        <v>225.8466</v>
+        <v>182.3226</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6487</v>
+        <v>0.3998</v>
       </c>
       <c r="B16" s="0">
-        <v>224.9551</v>
+        <v>183.0968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6001</v>
+        <v>0.4496</v>
       </c>
       <c r="B17" s="0">
-        <v>224.0631</v>
+        <v>183.4839</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5494</v>
+        <v>0.5004</v>
       </c>
       <c r="B18" s="0">
-        <v>223.474</v>
+        <v>183.871</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5008</v>
+        <v>0.5492</v>
       </c>
       <c r="B19" s="0">
-        <v>221.9776</v>
+        <v>183.871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4501</v>
+        <v>0.5989</v>
       </c>
       <c r="B20" s="0">
-        <v>219.273</v>
+        <v>184.4516</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.6503</v>
       </c>
       <c r="B21" s="0">
-        <v>218.0793</v>
+        <v>185.4194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3488</v>
+        <v>0.6996</v>
       </c>
       <c r="B22" s="0">
-        <v>216.8859</v>
+        <v>185.0323</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3002</v>
+        <v>0.7499</v>
       </c>
       <c r="B23" s="0">
-        <v>214.785</v>
+        <v>185.8065</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2505</v>
+        <v>0.7991</v>
       </c>
       <c r="B24" s="0">
-        <v>212.9867</v>
+        <v>186.5806</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2004</v>
+        <v>0.8204</v>
       </c>
       <c r="B25" s="0">
-        <v>211.1886</v>
+        <v>186.7742</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1823</v>
+        <v>0.8489</v>
       </c>
       <c r="B26" s="0">
-        <v>210.5896</v>
+        <v>186.7742</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1626</v>
+        <v>0.8749</v>
       </c>
       <c r="B27" s="0">
-        <v>209.9911</v>
+        <v>187.1613</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.142</v>
+        <v>0.8998</v>
       </c>
       <c r="B28" s="0">
-        <v>207.8819</v>
+        <v>187.9355</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1223</v>
+        <v>0.9241</v>
       </c>
       <c r="B29" s="0">
-        <v>207.5856</v>
+        <v>188.5161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.1016</v>
+        <v>0.9501</v>
       </c>
       <c r="B30" s="0">
-        <v>205.7786</v>
+        <v>190.0645</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.082</v>
+        <v>0.9734</v>
       </c>
       <c r="B31" s="0">
-        <v>204.5756</v>
+        <v>193.1613</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0639</v>
+        <v>0.9812</v>
       </c>
       <c r="B32" s="0">
-        <v>202.1634</v>
+        <v>194.7097</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0318</v>
+        <v>0.9905</v>
       </c>
       <c r="B33" s="0">
-        <v>197.0354</v>
+        <v>198.5806</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0106</v>
+        <v>0.9926</v>
       </c>
       <c r="B34" s="0">
-        <v>188.5797</v>
+        <v>203.6129</v>
       </c>
     </row>
     <row r="35"/>
@@ -6409,7 +6409,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6430,253 +6430,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9929</v>
+        <v>0.0102</v>
       </c>
       <c r="B3" s="0">
-        <v>323.978</v>
+        <v>213.7933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9883</v>
+        <v>0.0312</v>
       </c>
       <c r="B4" s="0">
-        <v>317.3306</v>
+        <v>225.4844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.981</v>
+        <v>0.0636</v>
       </c>
       <c r="B5" s="0">
-        <v>313.1018</v>
+        <v>230.903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9702</v>
+        <v>0.0821</v>
       </c>
       <c r="B6" s="0">
-        <v>310.0829</v>
+        <v>232.7099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.949</v>
+        <v>0.101</v>
       </c>
       <c r="B7" s="0">
-        <v>306.7649</v>
+        <v>234.0818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9236</v>
+        <v>0.1216</v>
       </c>
       <c r="B8" s="0">
-        <v>304.3548</v>
+        <v>235.1577</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8999</v>
+        <v>0.14</v>
       </c>
       <c r="B9" s="0">
-        <v>303.7576</v>
+        <v>236.1101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8756</v>
+        <v>0.16</v>
       </c>
       <c r="B10" s="0">
-        <v>302.8583</v>
+        <v>236.8785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8492</v>
+        <v>0.18</v>
       </c>
       <c r="B11" s="0">
-        <v>302.564</v>
+        <v>237.7341</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.8192</v>
+        <v>0.2005</v>
       </c>
       <c r="B12" s="0">
-        <v>301.3642</v>
+        <v>238.5664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7499</v>
+        <v>0.2502</v>
       </c>
       <c r="B13" s="0">
-        <v>298.6652</v>
+        <v>240.1935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6992</v>
+        <v>0.3</v>
       </c>
       <c r="B14" s="0">
-        <v>297.7739</v>
+        <v>241.3548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6496</v>
+        <v>0.3301</v>
       </c>
       <c r="B15" s="0">
-        <v>296.58</v>
+        <v>242.129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6</v>
+        <v>0.3503</v>
       </c>
       <c r="B16" s="0">
-        <v>294.7817</v>
+        <v>241.9355</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5498</v>
+        <v>0.3985</v>
       </c>
       <c r="B17" s="0">
-        <v>293.8902</v>
+        <v>243.0968</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5007</v>
+        <v>0.4499</v>
       </c>
       <c r="B18" s="0">
-        <v>292.394</v>
+        <v>243.871</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4511</v>
+        <v>0.5002</v>
       </c>
       <c r="B19" s="0">
-        <v>290.5957</v>
+        <v>243.871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3994</v>
+        <v>0.5495</v>
       </c>
       <c r="B20" s="0">
-        <v>288.798</v>
+        <v>244.4516</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3523</v>
+        <v>0.5998</v>
       </c>
       <c r="B21" s="0">
-        <v>286.999</v>
+        <v>245.0323</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3006</v>
+        <v>0.6501</v>
       </c>
       <c r="B22" s="0">
-        <v>284.8991</v>
+        <v>245.8065</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2499</v>
+        <v>0.6999</v>
       </c>
       <c r="B23" s="0">
-        <v>282.1944</v>
+        <v>246.3871</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2003</v>
+        <v>0.7502</v>
       </c>
       <c r="B24" s="0">
-        <v>279.7917</v>
+        <v>246.5806</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1817</v>
+        <v>0.7979</v>
       </c>
       <c r="B25" s="0">
-        <v>278.5885</v>
+        <v>247.1613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1615</v>
+        <v>0.8207</v>
       </c>
       <c r="B26" s="0">
-        <v>277.3857</v>
+        <v>247.9355</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1408</v>
+        <v>0.8503</v>
       </c>
       <c r="B27" s="0">
-        <v>276.1831</v>
+        <v>248.129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1227</v>
+        <v>0.8757</v>
       </c>
       <c r="B28" s="0">
-        <v>273.7708</v>
+        <v>248.9032</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1021</v>
+        <v>0.8996</v>
       </c>
       <c r="B29" s="0">
-        <v>271.3593</v>
+        <v>249.2903</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0819</v>
+        <v>0.9255</v>
       </c>
       <c r="B30" s="0">
-        <v>268.9477</v>
+        <v>250.2581</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0597</v>
+        <v>0.9499</v>
       </c>
       <c r="B31" s="0">
-        <v>264.7234</v>
+        <v>251.8065</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0318</v>
+        <v>0.9747</v>
       </c>
       <c r="B32" s="0">
-        <v>256.572</v>
+        <v>254.5161</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0101</v>
+        <v>0.981</v>
       </c>
       <c r="B33" s="0">
-        <v>237.8411</v>
-      </c>
-    </row>
-    <row r="34"/>
+        <v>257.6129</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.9908</v>
+      </c>
+      <c r="B34" s="0">
+        <v>261.6774</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.9934</v>
+      </c>
+      <c r="B35" s="0">
+        <v>266.3226</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6706,258 +6722,258 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0097</v>
+        <v>0.9922</v>
       </c>
       <c r="B3" s="0">
-        <v>101.4333</v>
+        <v>453.3267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0278</v>
+        <v>0.9876</v>
       </c>
       <c r="B4" s="0">
-        <v>107.5075</v>
+        <v>443.9594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.065</v>
+        <v>0.9809</v>
       </c>
       <c r="B5" s="0">
-        <v>111.6774</v>
+        <v>436.406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0805</v>
+        <v>0.9721</v>
       </c>
       <c r="B6" s="0">
-        <v>113.0323</v>
+        <v>432.7821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1013</v>
+        <v>0.9483</v>
       </c>
       <c r="B7" s="0">
-        <v>114.1935</v>
+        <v>426.745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1215</v>
+        <v>0.9209</v>
       </c>
       <c r="B8" s="0">
-        <v>115.3548</v>
+        <v>422.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1407</v>
+        <v>0.8966</v>
       </c>
       <c r="B9" s="0">
-        <v>116.5161</v>
+        <v>419.2052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1614</v>
+        <v>0.8713</v>
       </c>
       <c r="B10" s="0">
-        <v>117.6774</v>
+        <v>416.4929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1811</v>
+        <v>0.8475</v>
       </c>
       <c r="B11" s="0">
-        <v>118.4516</v>
+        <v>414.3846</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2008</v>
+        <v>0.818</v>
       </c>
       <c r="B12" s="0">
-        <v>119.2258</v>
+        <v>412.5802</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2506</v>
+        <v>0.7958</v>
       </c>
       <c r="B13" s="0">
-        <v>120.9677</v>
+        <v>410.4714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3014</v>
+        <v>0.7472</v>
       </c>
       <c r="B14" s="0">
-        <v>122.5161</v>
+        <v>407.1617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3507</v>
+        <v>0.6971</v>
       </c>
       <c r="B15" s="0">
-        <v>124.2581</v>
+        <v>403.5503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4</v>
+        <v>0.6479</v>
       </c>
       <c r="B16" s="0">
-        <v>125.8065</v>
+        <v>399.9385</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4492</v>
+        <v>0.5978</v>
       </c>
       <c r="B17" s="0">
-        <v>127.3548</v>
+        <v>396.0248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5001</v>
+        <v>0.5482</v>
       </c>
       <c r="B18" s="0">
-        <v>128.7097</v>
+        <v>392.4133</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5499</v>
+        <v>0.4985</v>
       </c>
       <c r="B19" s="0">
-        <v>130.4516</v>
+        <v>388.8017</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6002</v>
+        <v>0.4479</v>
       </c>
       <c r="B20" s="0">
-        <v>131.6129</v>
+        <v>384.2837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6505</v>
+        <v>0.3993</v>
       </c>
       <c r="B21" s="0">
-        <v>133.1613</v>
+        <v>380.3696</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7003</v>
+        <v>0.3512</v>
       </c>
       <c r="B22" s="0">
-        <v>134.7097</v>
+        <v>375.5487</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7506</v>
+        <v>0.3005</v>
       </c>
       <c r="B23" s="0">
-        <v>136.0645</v>
+        <v>370.4263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8004</v>
+        <v>0.2493</v>
       </c>
       <c r="B24" s="0">
-        <v>137.4194</v>
+        <v>365.6063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8195</v>
+        <v>0.2007</v>
       </c>
       <c r="B25" s="0">
-        <v>138.1935</v>
+        <v>359.5767</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8507</v>
+        <v>0.1826</v>
       </c>
       <c r="B26" s="0">
-        <v>139.3548</v>
+        <v>356.2578</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.875</v>
+        <v>0.1635</v>
       </c>
       <c r="B27" s="0">
-        <v>140.3226</v>
+        <v>353.2414</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8999</v>
+        <v>0.1413</v>
       </c>
       <c r="B28" s="0">
-        <v>141.4839</v>
+        <v>347.8082</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9248</v>
+        <v>0.1211</v>
       </c>
       <c r="B29" s="0">
-        <v>143.0323</v>
+        <v>343.2811</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9497</v>
+        <v>0.101</v>
       </c>
       <c r="B30" s="0">
-        <v>144.7742</v>
+        <v>337.8473</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9736</v>
+        <v>0.0792</v>
       </c>
       <c r="B31" s="0">
-        <v>147.871</v>
+        <v>329.694</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9808</v>
+        <v>0.0581</v>
       </c>
       <c r="B32" s="0">
-        <v>150.1935</v>
+        <v>320.9361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9901</v>
+        <v>0.0317</v>
       </c>
       <c r="B33" s="0">
-        <v>154.0645</v>
+        <v>302.5089</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9911</v>
+        <v>0.0111</v>
       </c>
       <c r="B34" s="0">
-        <v>160.4516</v>
+        <v>273.2001</v>
       </c>
     </row>
     <row r="35"/>
@@ -6990,258 +7006,258 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0098</v>
+        <v>0.992</v>
       </c>
       <c r="B3" s="0">
-        <v>164.1638</v>
+        <v>250.5397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0311</v>
+        <v>0.9873</v>
       </c>
       <c r="B4" s="0">
-        <v>170.3226</v>
+        <v>243.8924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0627</v>
+        <v>0.977</v>
       </c>
       <c r="B5" s="0">
-        <v>174</v>
+        <v>239.6644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0829</v>
+        <v>0.9692</v>
       </c>
       <c r="B6" s="0">
-        <v>175.3548</v>
+        <v>236.9468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1021</v>
+        <v>0.947</v>
       </c>
       <c r="B7" s="0">
-        <v>176.3226</v>
+        <v>234.2336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1218</v>
+        <v>0.9232</v>
       </c>
       <c r="B8" s="0">
-        <v>177.0968</v>
+        <v>232.4275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1415</v>
+        <v>0.8979</v>
       </c>
       <c r="B9" s="0">
-        <v>177.871</v>
+        <v>231.2263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1607</v>
+        <v>0.8736</v>
       </c>
       <c r="B10" s="0">
-        <v>178.2581</v>
+        <v>229.7226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1809</v>
+        <v>0.8482</v>
       </c>
       <c r="B11" s="0">
-        <v>179.0323</v>
+        <v>229.1258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1991</v>
+        <v>0.8182</v>
       </c>
       <c r="B12" s="0">
-        <v>179.6129</v>
+        <v>228.8326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2494</v>
+        <v>0.7991</v>
       </c>
       <c r="B13" s="0">
-        <v>180.3871</v>
+        <v>228.234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3007</v>
+        <v>0.749</v>
       </c>
       <c r="B14" s="0">
-        <v>181.3548</v>
+        <v>227.0403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3515</v>
+        <v>0.6988</v>
       </c>
       <c r="B15" s="0">
-        <v>182.3226</v>
+        <v>225.8466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3998</v>
+        <v>0.6487</v>
       </c>
       <c r="B16" s="0">
-        <v>183.0968</v>
+        <v>224.9551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4496</v>
+        <v>0.6001</v>
       </c>
       <c r="B17" s="0">
-        <v>183.4839</v>
+        <v>224.0631</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5004</v>
+        <v>0.5494</v>
       </c>
       <c r="B18" s="0">
-        <v>183.871</v>
+        <v>223.474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5492</v>
+        <v>0.5008</v>
       </c>
       <c r="B19" s="0">
-        <v>183.871</v>
+        <v>221.9776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5989</v>
+        <v>0.4501</v>
       </c>
       <c r="B20" s="0">
-        <v>184.4516</v>
+        <v>219.273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6503</v>
+        <v>0.4</v>
       </c>
       <c r="B21" s="0">
-        <v>185.4194</v>
+        <v>218.0793</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6996</v>
+        <v>0.3488</v>
       </c>
       <c r="B22" s="0">
-        <v>185.0323</v>
+        <v>216.8859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7499</v>
+        <v>0.3002</v>
       </c>
       <c r="B23" s="0">
-        <v>185.8065</v>
+        <v>214.785</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7991</v>
+        <v>0.2505</v>
       </c>
       <c r="B24" s="0">
-        <v>186.5806</v>
+        <v>212.9867</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8204</v>
+        <v>0.2004</v>
       </c>
       <c r="B25" s="0">
-        <v>186.7742</v>
+        <v>211.1886</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8489</v>
+        <v>0.1823</v>
       </c>
       <c r="B26" s="0">
-        <v>186.7742</v>
+        <v>210.5896</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8749</v>
+        <v>0.1626</v>
       </c>
       <c r="B27" s="0">
-        <v>187.1613</v>
+        <v>209.9911</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8998</v>
+        <v>0.142</v>
       </c>
       <c r="B28" s="0">
-        <v>187.9355</v>
+        <v>207.8819</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9241</v>
+        <v>0.1223</v>
       </c>
       <c r="B29" s="0">
-        <v>188.5161</v>
+        <v>207.5856</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9501</v>
+        <v>0.1016</v>
       </c>
       <c r="B30" s="0">
-        <v>190.0645</v>
+        <v>205.7786</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9734</v>
+        <v>0.082</v>
       </c>
       <c r="B31" s="0">
-        <v>193.1613</v>
+        <v>204.5756</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9812</v>
+        <v>0.0639</v>
       </c>
       <c r="B32" s="0">
-        <v>194.7097</v>
+        <v>202.1634</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9905</v>
+        <v>0.0318</v>
       </c>
       <c r="B33" s="0">
-        <v>198.5806</v>
+        <v>197.0354</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9926</v>
+        <v>0.0106</v>
       </c>
       <c r="B34" s="0">
-        <v>203.6129</v>
+        <v>188.5797</v>
       </c>
     </row>
     <row r="35"/>
@@ -7253,7 +7269,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7274,269 +7290,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0102</v>
+        <v>0.9929</v>
       </c>
       <c r="B3" s="0">
-        <v>213.7933</v>
+        <v>323.978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0312</v>
+        <v>0.9883</v>
       </c>
       <c r="B4" s="0">
-        <v>225.4844</v>
+        <v>317.3306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0636</v>
+        <v>0.981</v>
       </c>
       <c r="B5" s="0">
-        <v>230.903</v>
+        <v>313.1018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0821</v>
+        <v>0.9702</v>
       </c>
       <c r="B6" s="0">
-        <v>232.7099</v>
+        <v>310.0829</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.101</v>
+        <v>0.949</v>
       </c>
       <c r="B7" s="0">
-        <v>234.0818</v>
+        <v>306.7649</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1216</v>
+        <v>0.9236</v>
       </c>
       <c r="B8" s="0">
-        <v>235.1577</v>
+        <v>304.3548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.8999</v>
       </c>
       <c r="B9" s="0">
-        <v>236.1101</v>
+        <v>303.7576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.8756</v>
       </c>
       <c r="B10" s="0">
-        <v>236.8785</v>
+        <v>302.8583</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.8492</v>
       </c>
       <c r="B11" s="0">
-        <v>237.7341</v>
+        <v>302.564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2005</v>
+        <v>0.8192</v>
       </c>
       <c r="B12" s="0">
-        <v>238.5664</v>
+        <v>301.3642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2502</v>
+        <v>0.7499</v>
       </c>
       <c r="B13" s="0">
-        <v>240.1935</v>
+        <v>298.6652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.6992</v>
       </c>
       <c r="B14" s="0">
-        <v>241.3548</v>
+        <v>297.7739</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3301</v>
+        <v>0.6496</v>
       </c>
       <c r="B15" s="0">
-        <v>242.129</v>
+        <v>296.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3503</v>
+        <v>0.6</v>
       </c>
       <c r="B16" s="0">
-        <v>241.9355</v>
+        <v>294.7817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3985</v>
+        <v>0.5498</v>
       </c>
       <c r="B17" s="0">
-        <v>243.0968</v>
+        <v>293.8902</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4499</v>
+        <v>0.5007</v>
       </c>
       <c r="B18" s="0">
-        <v>243.871</v>
+        <v>292.394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5002</v>
+        <v>0.4511</v>
       </c>
       <c r="B19" s="0">
-        <v>243.871</v>
+        <v>290.5957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5495</v>
+        <v>0.3994</v>
       </c>
       <c r="B20" s="0">
-        <v>244.4516</v>
+        <v>288.798</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5998</v>
+        <v>0.3523</v>
       </c>
       <c r="B21" s="0">
-        <v>245.0323</v>
+        <v>286.999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6501</v>
+        <v>0.3006</v>
       </c>
       <c r="B22" s="0">
-        <v>245.8065</v>
+        <v>284.8991</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6999</v>
+        <v>0.2499</v>
       </c>
       <c r="B23" s="0">
-        <v>246.3871</v>
+        <v>282.1944</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7502</v>
+        <v>0.2003</v>
       </c>
       <c r="B24" s="0">
-        <v>246.5806</v>
+        <v>279.7917</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7979</v>
+        <v>0.1817</v>
       </c>
       <c r="B25" s="0">
-        <v>247.1613</v>
+        <v>278.5885</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8207</v>
+        <v>0.1615</v>
       </c>
       <c r="B26" s="0">
-        <v>247.9355</v>
+        <v>277.3857</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8503</v>
+        <v>0.1408</v>
       </c>
       <c r="B27" s="0">
-        <v>248.129</v>
+        <v>276.1831</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8757</v>
+        <v>0.1227</v>
       </c>
       <c r="B28" s="0">
-        <v>248.9032</v>
+        <v>273.7708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8996</v>
+        <v>0.1021</v>
       </c>
       <c r="B29" s="0">
-        <v>249.2903</v>
+        <v>271.3593</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9255</v>
+        <v>0.0819</v>
       </c>
       <c r="B30" s="0">
-        <v>250.2581</v>
+        <v>268.9477</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9499</v>
+        <v>0.0597</v>
       </c>
       <c r="B31" s="0">
-        <v>251.8065</v>
+        <v>264.7234</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9747</v>
+        <v>0.0318</v>
       </c>
       <c r="B32" s="0">
-        <v>254.5161</v>
+        <v>256.572</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.981</v>
+        <v>0.0101</v>
       </c>
       <c r="B33" s="0">
-        <v>257.6129</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9908</v>
-      </c>
-      <c r="B34" s="0">
-        <v>261.6774</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9934</v>
-      </c>
-      <c r="B35" s="0">
-        <v>266.3226</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>237.8411</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
